--- a/2015-16 FARP - College of Education.xlsx
+++ b/2015-16 FARP - College of Education.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550"/>
+    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="COA Data" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Resident</t>
   </si>
@@ -246,12 +246,6 @@
     </r>
   </si>
   <si>
-    <t>College-Specific Undergraduate Gift Aid for 2014-15: Aid Recipients with Complete FAFSAs and Need</t>
-  </si>
-  <si>
-    <t>College-Specific Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2014-15</t>
-  </si>
-  <si>
     <t>Percentage of Total Cost for Resident 2015-16</t>
   </si>
   <si>
@@ -259,6 +253,21 @@
   </si>
   <si>
     <t>2015-16</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Don't Forget Indebtedness</t>
+  </si>
+  <si>
+    <t>College-Specific Undergraduate Gift Aid for 2015-16: Aid Recipients with Complete FAFSAs and Need</t>
+  </si>
+  <si>
+    <t>College-Specific Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2015-16</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -968,6 +977,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1088,7 +1108,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>$22,680 </a:t>
+              <a:t>$25,134 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1150,190 +1170,32 @@
             <c:explosion val="10"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7015529308836395E-2"/>
-                  <c:y val="-7.7376057159521727E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $10,836 (48%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12121244906680737"/>
-                  <c:y val="-1.3703703703703701E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (4%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4521434820647432E-2"/>
-                  <c:y val="-1.9626713327500728E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $9,246 (41%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.1446850393700788E-2"/>
-                  <c:y val="1.9554170312044327E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>(8%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1381,11 +1243,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1479,7 +1341,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Estimated Cost of Attendance: $40,890</a:t>
+              <a:t>Estimated Cost of Attendance: $43,868</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1541,6 +1403,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:explosion val="25"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -1548,160 +1415,32 @@
             <c:explosion val="13"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2469597550306211E-2"/>
-                  <c:y val="-0.36720508894721493"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $29,046 (71%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1080354330708661"/>
-                  <c:y val="9.7862715077281989E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (2%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.2834645669291338E-3"/>
-                  <c:y val="-2.5802347623213765E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $9,246 (23%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798 (4%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1749,11 +1488,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1771,7 +1510,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1868,142 +1606,21 @@
             <c:explosion val="10"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.1143406456908942E-3"/>
-                  <c:y val="-0.12200223698693012"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.0243682441121745E-3"/>
-                  <c:y val="-1.0565657008751344E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.22512146260688876"/>
-                      <c:h val="0.22384401114206129"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5792840435004973E-2"/>
-                  <c:y val="-4.2017048753861516E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.3215871164252619E-2"/>
-                  <c:y val="-4.3048184341982744E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Seniors
-32%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -2012,7 +1629,14 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2042,16 +1666,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>421</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>616</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>748</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,9 +1684,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -2318,16 +1942,16 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5949451.7699999996</c:v>
+                  <c:v>6504287.6500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7027578.79</c:v>
+                  <c:v>6867461.1299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7472801.04</c:v>
+                  <c:v>8653614.4700000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8388829.4600000009</c:v>
+                  <c:v>7539322.1399999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,12 +1967,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="418302568"/>
-        <c:axId val="418302960"/>
+        <c:axId val="476523360"/>
+        <c:axId val="476524144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="418302568"/>
+        <c:axId val="476523360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +1992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418302960"/>
+        <c:crossAx val="476524144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2376,7 +2000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418302960"/>
+        <c:axId val="476524144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2010,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418302568"/>
+        <c:crossAx val="476523360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2506,7 +2130,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $8,014</a:t>
+              <a:t>Average Gift Aid: $8,499</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2605,30 +2229,16 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15494972355960088"/>
-                  <c:y val="0.21424952315743145"/>
+                  <c:x val="8.4004797346867235E-2"/>
+                  <c:y val="0.28935002689881156"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $5,972, 75%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2639,33 +2249,24 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24366452832533417"/>
-                  <c:y val="-0.26528781728370909"/>
+                  <c:x val="-0.22869050623931417"/>
+                  <c:y val="-0.25693679594398527"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $2,042, 25%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.3203638557231771"/>
+                      <c:h val="0.16459627329192547"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2676,28 +2277,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2722,10 +2311,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5971.7544058500916</c:v>
+                  <c:v>6376.4312945590991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2042.017038391225</c:v>
+                  <c:v>2122.202626641651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,9 +2324,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -2833,7 +2422,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $13,357</a:t>
+              <a:t>Average Gift Aid: $12,658</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2921,30 +2510,16 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0492458690848067E-2"/>
-                  <c:y val="0.27233204545084039"/>
+                  <c:x val="-2.2133242180017245E-2"/>
+                  <c:y val="0.33785787646109455"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $11,602, 87%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2955,30 +2530,16 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20382089649662241"/>
-                  <c:y val="-2.4210234590241436E-2"/>
+                  <c:x val="0.12407841544738241"/>
+                  <c:y val="-1.9667106829037674E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $1,754, 13%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2992,28 +2553,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3038,10 +2587,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11602.16456521739</c:v>
+                  <c:v>11425.338709677419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1754.391304347826</c:v>
+                  <c:v>1232.6612903225807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,9 +2600,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3149,7 +2698,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $8,229</a:t>
+              <a:t>Average Gift Aid: $8,727</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -3241,23 +2790,30 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19433722402247927"/>
-                  <c:y val="0.19204219037837661"/>
+                  <c:x val="0.1530008100102237"/>
+                  <c:y val="0.26061231476500218"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $6,199, 75%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16560347003536538"/>
+                  <c:y val="-0.21863321432647007"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -3268,46 +2824,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.24028347615093534"/>
-                      <c:h val="0.28132505175983435"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.28543875538115759"/>
-                  <c:y val="-0.24807812066969889"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $2,030, 25%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21637070692045585"/>
-                      <c:h val="0.26890269151138718"/>
+                      <c:w val="0.34895016900309134"/>
+                      <c:h val="0.16459627329192547"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -3320,19 +2838,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip">
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
@@ -3342,7 +2847,7 @@
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3367,10 +2872,10 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6198.9463947368422</c:v>
+                  <c:v>6653.9421631205669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2030.4110877192984</c:v>
+                  <c:v>2073.3093971631206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,9 +2885,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3515,7 +3020,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3546,6 +3053,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3574,13 +3082,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8013.7714442413171</c:v>
+                  <c:v>7885.3562476547841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13356.555869565216</c:v>
+                  <c:v>10830.354838709678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8229.357482456142</c:v>
+                  <c:v>8047.2267375886522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +3125,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3648,6 +3158,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3676,13 +3187,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5934.5923583180975</c:v>
+                  <c:v>7893.228367729831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13044.357173913044</c:v>
+                  <c:v>15374.241935483871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6221.4776052631569</c:v>
+                  <c:v>8304.4188297872333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,12 +3209,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="195973872"/>
-        <c:axId val="195973088"/>
+        <c:axId val="413247376"/>
+        <c:axId val="413241104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195973872"/>
+        <c:axId val="413247376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +3234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195973088"/>
+        <c:crossAx val="413241104"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3731,7 +3242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195973088"/>
+        <c:axId val="413241104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,6 +3265,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -3775,7 +3287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195973872"/>
+        <c:crossAx val="413247376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3783,6 +3295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3849,6 +3362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3903,7 +3417,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3921,7 +3437,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3939,7 +3457,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3998,13 +3518,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5934.5923583180975</c:v>
+                  <c:v>7893.228367729831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13044.357173913044</c:v>
+                  <c:v>15374.241935483871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6221.4776052631569</c:v>
+                  <c:v>8304.4188297872333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,12 +3540,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="195977400"/>
-        <c:axId val="195977792"/>
+        <c:axId val="413244240"/>
+        <c:axId val="413243064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195977400"/>
+        <c:axId val="413244240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +3565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195977792"/>
+        <c:crossAx val="413243064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4053,7 +3573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195977792"/>
+        <c:axId val="413243064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,13 +3599,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195977400"/>
+        <c:crossAx val="413244240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4420,7 +3941,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -4624,7 +4145,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Overall Undergraduate Student Financial Aid Information for 2014-15</a:t>
+            <a:t>Overall Undergraduate Student Financial Aid Information for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -4674,7 +4195,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,390 per semester</a:t>
+            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,495 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4692,7 +4213,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,295 per semester</a:t>
+            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,682 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4710,7 +4231,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,730 per academic year</a:t>
+            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,775 per academic year</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4728,7 +4249,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Forty-eight (48) percent of 2014-15 UGA graduating seniors had an average indebtedness of $22,087</a:t>
+            <a:t>  Forty-eight (48) percent of 2015-16 UGA graduating seniors had an average indebtedness of $22,087</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4746,7 +4267,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $22,680 (Resident), $40,890 (Nonresident) living on campus</a:t>
+            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $25,134 (Resident), $43,868 (Nonresident) living on campus</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4863,7 +4384,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2014-15 Financial Aid Recipient Profile</a:t>
+            <a:t>2015-16 Financial Aid Recipient Profile</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4934,7 +4455,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="266700" y="9944100"/>
-          <a:ext cx="9132570" cy="3419475"/>
+          <a:ext cx="9237345" cy="3419475"/>
           <a:chOff x="9144000" y="7734300"/>
           <a:chExt cx="7532370" cy="2244090"/>
         </a:xfrm>
@@ -4987,7 +4508,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>454006</xdr:colOff>
+          <xdr:colOff>349231</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
@@ -4998,7 +4519,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5281"/>
+                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5302"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5112,7 +4633,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Undergraduate Aid Recipient Demographics for 2014-15</a:t>
+            <a:t>Undergraduate Aid Recipient Demographics for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -5163,7 +4684,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Twenty-five (25) percent of aid recipients are male, and seventy-five (75) percent are female</a:t>
+            <a:t>Twenty-three (23) percent of aid recipients are male, and seventy-seven (77) percent are female</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5199,7 +4720,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Twenty-three (23) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,265</a:t>
+            <a:t>Twenty-four (24) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,214</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5281,7 +4802,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>$28,838,661</a:t>
+            <a:t>$29,564,685</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1500" b="1">
             <a:latin typeface="+mn-lt"/>
@@ -5295,55 +4816,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.79667</cdr:x>
-      <cdr:y>0.494</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.805</cdr:x>
-      <cdr:y>0.534</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="3642360" y="1411605"/>
-          <a:ext cx="38100" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5380,7 +4852,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>2,373</a:t>
+            <a:t>2,301</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1500" b="1">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -5392,7 +4864,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5429,7 +4901,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5452,7 +4924,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="4086225"/>
-          <a:ext cx="9715500" cy="3067050"/>
+          <a:ext cx="9820275" cy="3067050"/>
           <a:chOff x="274320" y="2373630"/>
           <a:chExt cx="7248524" cy="2154555"/>
         </a:xfrm>
@@ -5526,7 +4998,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="28575" y="11268075"/>
-          <a:ext cx="9705975" cy="3419473"/>
+          <a:ext cx="9810750" cy="3419473"/>
           <a:chOff x="618708" y="2155680"/>
           <a:chExt cx="8270023" cy="2486700"/>
         </a:xfrm>
@@ -5575,7 +5047,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>41819</xdr:rowOff>
         </xdr:to>
@@ -5586,7 +5058,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6454"/>
+                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6496"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5634,7 +5106,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>600074</xdr:colOff>
+          <xdr:colOff>495299</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>12461</xdr:rowOff>
         </xdr:to>
@@ -5645,7 +5117,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6455"/>
+                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6497"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5972,20 +5444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>36</v>
+      <c r="A1" s="118" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5993,7 +5466,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -6045,7 +5518,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -6091,6 +5564,22 @@
         <v>3746</v>
       </c>
       <c r="D12" s="53"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="117">
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="117">
+        <v>42692</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6100,11 +5589,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6154,22 +5641,21 @@
         <v>14</v>
       </c>
       <c r="B4" s="105">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="C4" s="108">
-        <v>5949451.7699999996</v>
+        <v>6504287.6500000004</v>
       </c>
       <c r="D4" s="28">
-        <f>(C4/B4)</f>
-        <v>14131.714418052255</v>
+        <v>14171</v>
       </c>
       <c r="E4" s="26">
         <f>B4/$B$8</f>
-        <v>0.17741255794353139</v>
+        <v>0.19947848761408082</v>
       </c>
       <c r="F4" s="27">
         <f>C4/C8</f>
-        <v>0.20630124809268796</v>
+        <v>0.22000192338255084</v>
       </c>
       <c r="H4" s="54"/>
     </row>
@@ -6178,22 +5664,21 @@
         <v>18</v>
       </c>
       <c r="B5" s="106">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="C5" s="109">
-        <v>7027578.79</v>
+        <v>6867461.1299999999</v>
       </c>
       <c r="D5" s="29">
-        <f>(C5/B5)</f>
-        <v>11951.664608843537</v>
+        <v>12982</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E7" si="0">B5/$B$8</f>
-        <v>0.24778761061946902</v>
+        <v>0.22990004345936549</v>
       </c>
       <c r="F5" s="27">
         <f>C5/C8</f>
-        <v>0.24368602881315601</v>
+        <v>0.23228595330572532</v>
       </c>
       <c r="H5" s="54"/>
     </row>
@@ -6202,22 +5687,21 @@
         <v>19</v>
       </c>
       <c r="B6" s="106">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="C6" s="109">
-        <v>7472801.04</v>
+        <v>8653614.4700000007</v>
       </c>
       <c r="D6" s="29">
-        <f>(C6/B6)</f>
-        <v>12131.17051948052</v>
+        <v>13334</v>
       </c>
       <c r="E6" s="26">
         <f t="shared" si="0"/>
-        <v>0.25958702064896755</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="F6" s="27">
         <f>C6/C8</f>
-        <v>0.25912441026483635</v>
+        <v>0.29270105045416822</v>
       </c>
       <c r="H6" s="54"/>
     </row>
@@ -6226,22 +5710,21 @@
         <v>20</v>
       </c>
       <c r="B7" s="107">
-        <v>748</v>
+        <v>664</v>
       </c>
       <c r="C7" s="110">
-        <v>8388829.4600000009</v>
+        <v>7539322.1399999997</v>
       </c>
       <c r="D7" s="29">
-        <f>(C7/B7)</f>
-        <v>11215.012647058824</v>
+        <v>11354</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="0"/>
-        <v>0.31521281078803204</v>
+        <v>0.28857018687527164</v>
       </c>
       <c r="F7" s="27">
         <f>C7/C8</f>
-        <v>0.29088831282931971</v>
+        <v>0.25501107285755559</v>
       </c>
       <c r="H7" s="54"/>
     </row>
@@ -6251,15 +5734,15 @@
       </c>
       <c r="B8" s="58">
         <f>SUM(B4:B7)</f>
-        <v>2373</v>
+        <v>2301</v>
       </c>
       <c r="C8" s="59">
         <f>SUM(C4:C7)</f>
-        <v>28838661.059999999</v>
+        <v>29564685.390000001</v>
       </c>
       <c r="D8" s="60">
         <f>(C8/B8)</f>
-        <v>12152.828091024019</v>
+        <v>12848.624680573665</v>
       </c>
       <c r="E8" s="61">
         <f>SUM(E4:E7)</f>
@@ -6326,9 +5809,29 @@
       <c r="F14" s="24"/>
     </row>
     <row r="27" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="119" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="116">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="119" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B41" s="116">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
       </c>
     </row>
   </sheetData>
@@ -6345,9 +5848,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6360,8 +5865,8 @@
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="str">
         <f>'COA Data'!A1 &amp; " Undergraduate Gift Aid - Aid Recipients with Complete FAFSAs¹ and Financial Need²"</f>
         <v>2015-16 Undergraduate Gift Aid - Aid Recipients with Complete FAFSAs¹ and Financial Need²</v>
@@ -6373,7 +5878,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6382,7 +5887,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="68" t="s">
         <v>0</v>
@@ -6397,25 +5902,25 @@
       </c>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="33">
-        <v>1094</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="33">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35">
         <f>B6+D6</f>
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -6438,90 +5943,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="83">
-        <f>B9+B10</f>
-        <v>8767065.9600000009</v>
+        <v>9059543.7599999998</v>
       </c>
       <c r="C8" s="85">
         <f>B8/B6</f>
-        <v>8013.7714442413171</v>
+        <v>8498.6339212007497</v>
       </c>
       <c r="D8" s="83">
-        <f>D9+D10</f>
-        <v>614401.56999999995</v>
+        <v>784796</v>
       </c>
       <c r="E8" s="84">
         <f>D8/D6</f>
-        <v>13356.555869565216</v>
+        <v>12658</v>
       </c>
       <c r="F8" s="85">
         <f>B8+D8</f>
-        <v>9381467.5300000012</v>
+        <v>9844339.7599999998</v>
       </c>
       <c r="G8" s="86">
         <f>F8/F6</f>
-        <v>8229.357482456142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8727.2515602836884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="79">
-        <v>6533099.3200000003</v>
+        <v>6797275.7599999998</v>
       </c>
       <c r="C9" s="81">
         <f>B9/B6</f>
-        <v>5971.7544058500916</v>
+        <v>6376.4312945590991</v>
       </c>
       <c r="D9" s="79">
-        <v>533699.56999999995</v>
+        <v>708371</v>
       </c>
       <c r="E9" s="80">
         <f>D9/D6</f>
-        <v>11602.16456521739</v>
+        <v>11425.338709677419</v>
       </c>
       <c r="F9" s="81">
         <f>B9+D9</f>
-        <v>7066798.8900000006</v>
+        <v>7505646.7599999998</v>
       </c>
       <c r="G9" s="82">
         <f>F9/F6</f>
-        <v>6198.9463947368422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6653.9421631205669</v>
+      </c>
+      <c r="J9" s="120">
+        <f>F9/F8</f>
+        <v>0.76243272204981272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="111">
-        <v>2233966.64</v>
+        <v>2262268</v>
       </c>
       <c r="C10" s="77">
         <f>B10/B6</f>
-        <v>2042.017038391225</v>
+        <v>2122.202626641651</v>
       </c>
       <c r="D10" s="75">
-        <v>80702</v>
+        <v>76425</v>
       </c>
       <c r="E10" s="76">
         <f>D10/D6</f>
-        <v>1754.391304347826</v>
+        <v>1232.6612903225807</v>
       </c>
       <c r="F10" s="77">
         <f>B10+D10</f>
-        <v>2314668.64</v>
+        <v>2338693</v>
       </c>
       <c r="G10" s="78">
         <f>F10/F6</f>
-        <v>2030.4110877192984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2073.3093971631206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
         <v>2</v>
       </c>
@@ -6533,7 +6040,7 @@
       <c r="G11" s="96"/>
       <c r="H11" s="97"/>
     </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98"/>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
@@ -6543,7 +6050,7 @@
       <c r="G12" s="98"/>
       <c r="H12" s="97"/>
     </row>
-    <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="95"/>
       <c r="C13" s="99"/>
@@ -6553,7 +6060,7 @@
       <c r="G13" s="100"/>
       <c r="H13" s="97"/>
     </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="95"/>
       <c r="C14" s="99"/>
@@ -6563,7 +6070,7 @@
       <c r="G14" s="100"/>
       <c r="H14" s="97"/>
     </row>
-    <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="95"/>
       <c r="C15" s="99"/>
@@ -6576,11 +6083,31 @@
     <row r="19" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="46"/>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="116">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B41" s="116">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F8:F10 C8:D8" formula="1"/>
+    <ignoredError sqref="F8:F10 C8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6591,10 +6118,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,16 +6186,18 @@
         <v>7</v>
       </c>
       <c r="B5" s="70">
-        <v>1094</v>
+        <f>'Gift Aid - Merit vs Need'!B6</f>
+        <v>1066</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="71">
-        <v>46</v>
+        <f>'Gift Aid - Merit vs Need'!D6</f>
+        <v>62</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="70">
         <f>B5+D5</f>
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="G5" s="34"/>
     </row>
@@ -6700,26 +6229,26 @@
         <v>29</v>
       </c>
       <c r="B7" s="83">
-        <v>15259510</v>
+        <v>16819971.199999999</v>
       </c>
       <c r="C7" s="84">
         <f>B7/B5</f>
-        <v>13948.363802559415</v>
+        <v>15778.584615384614</v>
       </c>
       <c r="D7" s="85">
-        <v>1214442</v>
+        <v>1624685</v>
       </c>
       <c r="E7" s="85">
         <f>D7/D5</f>
-        <v>26400.91304347826</v>
+        <v>26204.596774193549</v>
       </c>
       <c r="F7" s="83">
         <f>B7+D7</f>
-        <v>16473952</v>
+        <v>18444656.199999999</v>
       </c>
       <c r="G7" s="86">
         <f>F7/F5</f>
-        <v>14450.835087719299</v>
+        <v>16351.645567375886</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6727,26 +6256,26 @@
         <v>30</v>
       </c>
       <c r="B8" s="87">
-        <v>8767065.9600000009</v>
+        <v>8405789.7599999998</v>
       </c>
       <c r="C8" s="88">
         <f>B8/B5</f>
-        <v>8013.7714442413171</v>
+        <v>7885.3562476547841</v>
       </c>
       <c r="D8" s="89">
-        <v>614401.56999999995</v>
+        <v>671482</v>
       </c>
       <c r="E8" s="89">
         <f>D8/D5</f>
-        <v>13356.555869565216</v>
+        <v>10830.354838709678</v>
       </c>
       <c r="F8" s="87">
         <f>B8+D8</f>
-        <v>9381467.5300000012</v>
+        <v>9077271.7599999998</v>
       </c>
       <c r="G8" s="90">
         <f>F8/F5</f>
-        <v>8229.357482456142</v>
+        <v>8047.2267375886522</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6754,28 +6283,26 @@
         <v>31</v>
       </c>
       <c r="B9" s="91">
-        <f>B7-B8</f>
-        <v>6492444.0399999991</v>
+        <v>8414181.4399999995</v>
       </c>
       <c r="C9" s="92">
         <f>B9/B5</f>
-        <v>5934.5923583180975</v>
+        <v>7893.228367729831</v>
       </c>
       <c r="D9" s="93">
-        <f>D7-D8</f>
-        <v>600040.43000000005</v>
+        <v>953203</v>
       </c>
       <c r="E9" s="93">
         <f>D9/D5</f>
-        <v>13044.357173913044</v>
+        <v>15374.241935483871</v>
       </c>
       <c r="F9" s="91">
         <f>B9+D9</f>
-        <v>7092484.4699999988</v>
+        <v>9367384.4399999995</v>
       </c>
       <c r="G9" s="94">
         <f>F9/F5</f>
-        <v>6221.4776052631569</v>
+        <v>8304.4188297872333</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6898,11 +6425,31 @@
     <row r="23" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="116">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B41" s="116">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F7:F9 C9:D9" formula="1"/>
+    <ignoredError sqref="F7:F9 C9" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6913,17 +6460,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A60:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B60" s="119">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B61" s="119">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.25" top="0.5" bottom="0.75" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6943,7 +6512,7 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
@@ -6964,15 +6533,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7014,6 +6585,29 @@
       <c r="M38" s="114"/>
       <c r="N38" s="114"/>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="116">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="116">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K38:L38"/>
@@ -7036,22 +6630,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P54"/>
+  <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -7073,7 +6668,7 @@
     <row r="36" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
@@ -7093,6 +6688,26 @@
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="119">
+        <f>'COA Data'!B40</f>
+        <v>42692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="119">
+        <f>'COA Data'!B41</f>
+        <v>42692</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:P2"/>
